--- a/telemetry_feedback.xlsx
+++ b/telemetry_feedback.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -471,35 +471,72 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>15:20:28</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2025.1.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>testing2</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>2025-12-12</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>15:44:42</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Chey Wade</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>2025.1.2</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>gpt-41</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>testing</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>initial</t>
         </is>

--- a/telemetry_feedback.xlsx
+++ b/telemetry_feedback.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -476,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>15:20:28</t>
+          <t>16:15:13</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -486,7 +486,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025.1.12</t>
+          <t>2025.1.13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,7 +496,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>testing2</t>
+          <t>testing3</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -508,35 +508,72 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>15:20:28</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2025.1.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>testing2</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>2025-12-12</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>15:44:42</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Chey Wade</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>2025.1.2</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>gpt-41</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>testing</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>initial</t>
         </is>

--- a/telemetry_feedback.xlsx
+++ b/telemetry_feedback.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -427,7 +427,7 @@
     <col width="11" customWidth="1" min="3" max="3"/>
     <col width="13" customWidth="1" min="4" max="4"/>
     <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="30" customWidth="1" min="6" max="6"/>
     <col width="10" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -471,17 +471,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2025-12-18</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>16:15:13</t>
+          <t>09:53:04</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Chey Wade</t>
+          <t>Choua Lee</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,11 +494,7 @@
           <t>gpt-41</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>testing3</t>
-        </is>
-      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
           <t>initial</t>
@@ -508,22 +504,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-12-16</t>
+          <t>2025-12-17</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>15:20:28</t>
+          <t>08:16:43</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Chey Wade</t>
+          <t>Choua Lee</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025.1.12</t>
+          <t>2025.1.13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -533,7 +529,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>testing2</t>
+          <t>Is the feedback working yet?</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -545,35 +541,146 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>2025-12-17</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>08:15:18</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Choua Lee</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2025.1.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>testing testing</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-12-17</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>08:02:28</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2025.1.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Requirements weren't great</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>16:15:13</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Chey Wade</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2025.1.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>gpt-41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>testing3</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>initial</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>2025-12-12</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>15:44:42</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Chey Wade</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>2025.1.2</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>gpt-41</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>testing</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>initial</t>
         </is>
